--- a/B65_Planification_AntoineDeschenes.xlsx
+++ b/B65_Planification_AntoineDeschenes.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -470,6 +470,39 @@
   </si>
   <si>
     <t>Faire le site web de présentation</t>
+  </si>
+  <si>
+    <t>Fait</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>+2h</t>
+  </si>
+  <si>
+    <t>L'application ne plante plus mais gestion = continuer</t>
+  </si>
+  <si>
+    <t>Passe tout droit</t>
+  </si>
+  <si>
+    <t>2 de 4 sur raspberrypi</t>
+  </si>
+  <si>
+    <t>Fonctions en place, manque boutons interface web</t>
+  </si>
+  <si>
+    <t>Manque classe evenements a completer</t>
+  </si>
+  <si>
+    <t>Le programme se charge avec un objet style JSON</t>
+  </si>
+  <si>
+    <t>Manque pièces</t>
+  </si>
+  <si>
+    <t>Backend construit en conséquence</t>
   </si>
 </sst>
 </file>
@@ -973,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1529,6 +1562,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2646,6 +2683,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2760,8 +2798,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="262604344"/>
-        <c:axId val="261932792"/>
+        <c:axId val="292533064"/>
+        <c:axId val="292533456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2814,10 +2852,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2834,11 +2872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="262604344"/>
-        <c:axId val="261932792"/>
+        <c:axId val="292533064"/>
+        <c:axId val="292533456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="262604344"/>
+        <c:axId val="292533064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,7 +2919,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261932792"/>
+        <c:crossAx val="292533456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2889,7 +2927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261932792"/>
+        <c:axId val="292533456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,7 +2978,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262604344"/>
+        <c:crossAx val="292533064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2954,6 +2992,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3060,6 +3099,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3223,7 +3263,7 @@
                   <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.75</c:v>
+                  <c:v>21.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3242,11 +3282,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-15"/>
-        <c:axId val="326405032"/>
-        <c:axId val="262318952"/>
+        <c:axId val="349031896"/>
+        <c:axId val="349027976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="326405032"/>
+        <c:axId val="349031896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3289,7 +3329,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262318952"/>
+        <c:crossAx val="349027976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3297,7 +3337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262318952"/>
+        <c:axId val="349027976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3348,7 +3388,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326405032"/>
+        <c:crossAx val="349031896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3362,6 +3402,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3468,6 +3509,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3765,6 +3807,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3871,6 +3914,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4192,6 +4236,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6914,7 +6959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -9587,7 +9632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W56"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -11015,8 +11060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11081,7 +11126,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 18 champs à remplir!</v>
+        <v>Attention, il reste 12 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -11178,7 +11223,7 @@
       </c>
       <c r="V9" s="9">
         <f>SUM(G9:G43)</f>
-        <v>7.2916666666666699E-2</v>
+        <v>0.8854166666666673</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -11226,15 +11271,15 @@
       </c>
       <c r="S10" s="61">
         <f t="array" ref="S10">SUM(($D$9:$D$43=$R10)*$G$9:$G$43)</f>
-        <v>7.2916666666666699E-2</v>
+        <v>0.46875000000000033</v>
       </c>
       <c r="T10" s="62">
         <f t="shared" ref="T10:T11" si="4">S10*24*60</f>
-        <v>105.00000000000006</v>
+        <v>675.00000000000045</v>
       </c>
       <c r="V10" s="10">
         <f>V9</f>
-        <v>7.2916666666666699E-2</v>
+        <v>0.8854166666666673</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -11282,15 +11327,15 @@
       </c>
       <c r="S11" s="61">
         <f t="array" ref="S11">SUM(($D$9:$D$43=$R11)*$G$9:$G$43)</f>
-        <v>0</v>
+        <v>0.41666666666666696</v>
       </c>
       <c r="T11" s="62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>600.00000000000045</v>
       </c>
       <c r="V11" s="63">
         <f>DAY(V9)*24+HOUR(V9)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -11337,7 +11382,7 @@
       <c r="R12" s="8"/>
       <c r="V12" s="4">
         <f>MINUTE(V9)</f>
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
@@ -11386,11 +11431,11 @@
       </c>
       <c r="V13" s="63">
         <f>V11</f>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="W13" s="4" t="str">
         <f>V13 &amp; " " &amp; U13 &amp; IF(V13 &gt; 1, "s", "")</f>
-        <v>1 heure</v>
+        <v>21 heures</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -11418,7 +11463,7 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="H14" s="113">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
@@ -11431,11 +11476,11 @@
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
@@ -11443,11 +11488,11 @@
       </c>
       <c r="V14" s="4">
         <f>V12</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="W14" s="4" t="str">
         <f>V14 &amp; " " &amp; U14 &amp; IF(V14 &gt; 1, "s", "")</f>
-        <v>45 minutes</v>
+        <v>15 minutes</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -11471,14 +11516,16 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F14),"",'Sprint 1 - Bilan'!F14)</f>
         <v/>
       </c>
-      <c r="G15" s="118"/>
+      <c r="G15" s="118">
+        <v>0.16666666666666699</v>
+      </c>
       <c r="H15" s="116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
@@ -11486,20 +11533,20 @@
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
         <f>IF(V13&gt;0,IF(V14&gt;0,W13&amp;" et "&amp;W14,W13),W14)</f>
-        <v>1 heure et 45 minutes</v>
+        <v>21 heures et 15 minutes</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f>V13&amp;"h"&amp;TEXT(V14,"00")</f>
-        <v>1h45</v>
+        <v>21h15</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -11523,16 +11570,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F15),"",'Sprint 1 - Bilan'!F15)</f>
         <v/>
       </c>
-      <c r="G16" s="112"/>
-      <c r="H16" s="113"/>
+      <c r="G16" s="112">
+        <v>0.125</v>
+      </c>
+      <c r="H16" s="113">
+        <v>1</v>
+      </c>
       <c r="I16" s="114"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11540,16 +11591,16 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche est en retard!",CONCATENATE(V16," tâches sont en retard!")))</f>
-        <v>10 tâches sont en retard!</v>
+        <v>4 tâches sont en retard!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -11577,9 +11628,11 @@
         <v>3.125E-2</v>
       </c>
       <c r="H17" s="116">
-        <v>0.25</v>
-      </c>
-      <c r="I17" s="117"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="140" t="s">
+        <v>107</v>
+      </c>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -11590,11 +11643,11 @@
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="8"/>
     </row>
@@ -11619,16 +11672,22 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F17),"",'Sprint 1 - Bilan'!F17)</f>
         <v/>
       </c>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="114"/>
+      <c r="G18" s="112">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H18" s="113">
+        <v>1</v>
+      </c>
+      <c r="I18" s="114" t="s">
+        <v>111</v>
+      </c>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11636,7 +11695,7 @@
       </c>
       <c r="P18" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="8"/>
     </row>
@@ -11661,17 +11720,23 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F18),"",'Sprint 1 - Bilan'!F18)</f>
         <v/>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="117"/>
+      <c r="G19" s="118">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="H19" s="116">
+        <v>1</v>
+      </c>
+      <c r="I19" s="117" t="s">
+        <v>111</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11679,7 +11744,7 @@
       </c>
       <c r="P19" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="8"/>
     </row>
@@ -11705,15 +11770,19 @@
         <v/>
       </c>
       <c r="G20" s="112"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="114"/>
+      <c r="H20" s="113">
+        <v>0</v>
+      </c>
+      <c r="I20" s="114" t="s">
+        <v>106</v>
+      </c>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11748,9 +11817,11 @@
       </c>
       <c r="G21" s="118"/>
       <c r="H21" s="116">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="117"/>
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="117" t="s">
+        <v>112</v>
+      </c>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -11761,7 +11832,7 @@
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="b">
         <f t="shared" si="3"/>
@@ -11875,11 +11946,13 @@
         <v/>
       </c>
       <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
+      <c r="H24" s="113">
+        <v>0</v>
+      </c>
       <c r="I24" s="114"/>
       <c r="M24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" si="1"/>
@@ -11917,11 +11990,13 @@
         <v/>
       </c>
       <c r="G25" s="118"/>
-      <c r="H25" s="116"/>
+      <c r="H25" s="116">
+        <v>0</v>
+      </c>
       <c r="I25" s="117"/>
       <c r="M25" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3" t="b">
         <f t="shared" si="1"/>
@@ -11958,9 +12033,15 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F25),"",'Sprint 1 - Bilan'!F25)</f>
         <v/>
       </c>
-      <c r="G26" s="112"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="114"/>
+      <c r="G26" s="112">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H26" s="113">
+        <v>0.45</v>
+      </c>
+      <c r="I26" s="114" t="s">
+        <v>110</v>
+      </c>
       <c r="M26" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12000,9 +12081,15 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F26),"",'Sprint 1 - Bilan'!F26)</f>
         <v/>
       </c>
-      <c r="G27" s="118"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="117"/>
+      <c r="G27" s="118">
+        <v>0.25</v>
+      </c>
+      <c r="H27" s="116">
+        <v>0.75</v>
+      </c>
+      <c r="I27" s="117" t="s">
+        <v>108</v>
+      </c>
       <c r="M27" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12043,11 +12130,15 @@
         <v/>
       </c>
       <c r="G28" s="112"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="114"/>
+      <c r="H28" s="113">
+        <v>0.3</v>
+      </c>
+      <c r="I28" s="114" t="s">
+        <v>109</v>
+      </c>
       <c r="M28" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="3" t="b">
         <f t="shared" si="1"/>
@@ -12127,11 +12218,15 @@
         <v/>
       </c>
       <c r="G30" s="112"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="114"/>
+      <c r="H30" s="113">
+        <v>0.3</v>
+      </c>
+      <c r="I30" s="114" t="s">
+        <v>113</v>
+      </c>
       <c r="M30" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="3" t="b">
         <f t="shared" si="1"/>
@@ -12170,7 +12265,9 @@
       </c>
       <c r="G31" s="118"/>
       <c r="H31" s="116"/>
-      <c r="I31" s="117"/>
+      <c r="I31" s="117" t="s">
+        <v>105</v>
+      </c>
       <c r="M31" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12211,11 +12308,13 @@
         <v/>
       </c>
       <c r="G32" s="112"/>
-      <c r="H32" s="113"/>
+      <c r="H32" s="113">
+        <v>0</v>
+      </c>
       <c r="I32" s="114"/>
       <c r="M32" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="3" t="b">
         <f t="shared" si="1"/>
@@ -12295,11 +12394,15 @@
         <v/>
       </c>
       <c r="G34" s="112"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="114"/>
+      <c r="H34" s="113">
+        <v>0.35</v>
+      </c>
+      <c r="I34" s="114" t="s">
+        <v>115</v>
+      </c>
       <c r="M34" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="3" t="b">
         <f t="shared" si="1"/>
@@ -12338,7 +12441,9 @@
       </c>
       <c r="G35" s="115"/>
       <c r="H35" s="116"/>
-      <c r="I35" s="117"/>
+      <c r="I35" s="117" t="s">
+        <v>114</v>
+      </c>
       <c r="M35" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12696,33 +12801,33 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>18 champs</v>
+        <v>12 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -12867,7 +12972,7 @@
       <formula>LEN($B10)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations xWindow="1473" yWindow="453" count="7">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Nom de tâche trop long" error="Le nom de votre tâche doit être court. _x000a_Un maximum de 72 caractères est mis à votre disposition._x000a_Pour plus de détail, veuillez faire l'ajout de commentaires." promptTitle="Nom de la tâche" prompt="_x000a_Veuillez saisir le nom de la tâche._x000a__x000a_Lorsque pertinent, n'oubliez pas d'ajouter une description de votre tâche sous forme de commentaire." sqref="C9:C43">
       <formula1>0</formula1>
       <formula2>72</formula2>
@@ -12900,8 +13005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12966,7 +13071,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 56 champs à remplir!</v>
+        <v>Attention, il reste 44 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13297,18 +13402,18 @@
       </c>
       <c r="F14" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H14)&lt;&gt;0,'Sprint 2 - Bilan'!$H14,IF(LEN('Sprint 2 - Bilan'!$F14)=0,"",'Sprint 2 - Bilan'!$F14))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="112"/>
       <c r="H14" s="113"/>
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13316,7 +13421,7 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
@@ -13344,24 +13449,24 @@
         <f>IF(LEN(Planification!H14)&lt;&gt;0,Planification!H14,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E15" s="75" t="str">
+      <c r="E15" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15))</f>
-        <v/>
+        <v>0.16666666666666699</v>
       </c>
       <c r="F15" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H15)&lt;&gt;0,'Sprint 2 - Bilan'!$H15,IF(LEN('Sprint 2 - Bilan'!$F15)=0,"",'Sprint 2 - Bilan'!$F15))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="118"/>
       <c r="H15" s="116"/>
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13369,7 +13474,7 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
@@ -13394,24 +13499,24 @@
         <f>IF(LEN(Planification!H15)&lt;&gt;0,Planification!H15,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E16" s="73" t="str">
+      <c r="E16" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16))</f>
-        <v/>
-      </c>
-      <c r="F16" s="77" t="str">
+        <v>0.125</v>
+      </c>
+      <c r="F16" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H16)&lt;&gt;0,'Sprint 2 - Bilan'!$H16,IF(LEN('Sprint 2 - Bilan'!$F16)=0,"",'Sprint 2 - Bilan'!$F16))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G16" s="112"/>
       <c r="H16" s="113"/>
       <c r="I16" s="114"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13419,16 +13524,16 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>28 tâches n'ont pas été terminé!</v>
+        <v>22 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -13450,18 +13555,18 @@
       </c>
       <c r="F17" s="78">
         <f>IF(LEN('Sprint 2 - Bilan'!$H17)&lt;&gt;0,'Sprint 2 - Bilan'!$H17,IF(LEN('Sprint 2 - Bilan'!$F17)=0,"",'Sprint 2 - Bilan'!$F17))</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G17" s="115"/>
       <c r="H17" s="116"/>
       <c r="I17" s="117"/>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13469,7 +13574,7 @@
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="8"/>
     </row>
@@ -13486,24 +13591,24 @@
         <f>IF(LEN(Planification!H17)&lt;&gt;0,Planification!H17,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E18" s="73" t="str">
+      <c r="E18" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18))</f>
-        <v/>
-      </c>
-      <c r="F18" s="77" t="str">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F18" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H18)&lt;&gt;0,'Sprint 2 - Bilan'!$H18,IF(LEN('Sprint 2 - Bilan'!$F18)=0,"",'Sprint 2 - Bilan'!$F18))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G18" s="112"/>
       <c r="H18" s="113"/>
       <c r="I18" s="114"/>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13511,7 +13616,7 @@
       </c>
       <c r="P18" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="8"/>
     </row>
@@ -13528,24 +13633,24 @@
         <f>IF(LEN(Planification!H18)&lt;&gt;0,Planification!H18,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E19" s="75" t="str">
+      <c r="E19" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19))</f>
-        <v/>
-      </c>
-      <c r="F19" s="79" t="str">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="F19" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H19)&lt;&gt;0,'Sprint 2 - Bilan'!$H19,IF(LEN('Sprint 2 - Bilan'!$F19)=0,"",'Sprint 2 - Bilan'!$F19))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G19" s="118"/>
       <c r="H19" s="116"/>
       <c r="I19" s="117"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13553,7 +13658,7 @@
       </c>
       <c r="P19" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="8"/>
     </row>
@@ -13574,9 +13679,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20))</f>
         <v/>
       </c>
-      <c r="F20" s="77" t="str">
+      <c r="F20" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H20)&lt;&gt;0,'Sprint 2 - Bilan'!$H20,IF(LEN('Sprint 2 - Bilan'!$F20)=0,"",'Sprint 2 - Bilan'!$F20))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G20" s="112"/>
       <c r="H20" s="113"/>
@@ -13618,7 +13723,7 @@
       </c>
       <c r="F21" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H21)&lt;&gt;0,'Sprint 2 - Bilan'!$H21,IF(LEN('Sprint 2 - Bilan'!$F21)=0,"",'Sprint 2 - Bilan'!$F21))</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G21" s="118"/>
       <c r="H21" s="116"/>
@@ -13742,9 +13847,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E24)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G24)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E24)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G24))</f>
         <v/>
       </c>
-      <c r="F24" s="77" t="str">
+      <c r="F24" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H24)&lt;&gt;0,'Sprint 2 - Bilan'!$H24,IF(LEN('Sprint 2 - Bilan'!$F24)=0,"",'Sprint 2 - Bilan'!$F24))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G24" s="112"/>
       <c r="H24" s="113"/>
@@ -13784,9 +13889,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E25)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G25)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E25)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G25))</f>
         <v/>
       </c>
-      <c r="F25" s="79" t="str">
+      <c r="F25" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H25)&lt;&gt;0,'Sprint 2 - Bilan'!$H25,IF(LEN('Sprint 2 - Bilan'!$F25)=0,"",'Sprint 2 - Bilan'!$F25))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G25" s="118"/>
       <c r="H25" s="116"/>
@@ -13822,13 +13927,13 @@
         <f>IF(LEN(Planification!H25)&lt;&gt;0,Planification!H25,"")</f>
         <v>Sprint 3</v>
       </c>
-      <c r="E26" s="73" t="str">
+      <c r="E26" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E26)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G26)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E26)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G26))</f>
-        <v/>
-      </c>
-      <c r="F26" s="77" t="str">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F26" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H26)&lt;&gt;0,'Sprint 2 - Bilan'!$H26,IF(LEN('Sprint 2 - Bilan'!$F26)=0,"",'Sprint 2 - Bilan'!$F26))</f>
-        <v/>
+        <v>0.45</v>
       </c>
       <c r="G26" s="112"/>
       <c r="H26" s="113"/>
@@ -13864,13 +13969,13 @@
         <f>IF(LEN(Planification!H26)&lt;&gt;0,Planification!H26,"")</f>
         <v>Sprint 3</v>
       </c>
-      <c r="E27" s="75" t="str">
+      <c r="E27" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E27)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G27)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E27)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G27))</f>
-        <v/>
-      </c>
-      <c r="F27" s="79" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H27)&lt;&gt;0,'Sprint 2 - Bilan'!$H27,IF(LEN('Sprint 2 - Bilan'!$F27)=0,"",'Sprint 2 - Bilan'!$F27))</f>
-        <v/>
+        <v>0.75</v>
       </c>
       <c r="G27" s="118"/>
       <c r="H27" s="116"/>
@@ -13910,9 +14015,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E28)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G28)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E28)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G28))</f>
         <v/>
       </c>
-      <c r="F28" s="77" t="str">
+      <c r="F28" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H28)&lt;&gt;0,'Sprint 2 - Bilan'!$H28,IF(LEN('Sprint 2 - Bilan'!$F28)=0,"",'Sprint 2 - Bilan'!$F28))</f>
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="G28" s="112"/>
       <c r="H28" s="113"/>
@@ -13994,9 +14099,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E30)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G30)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E30)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G30))</f>
         <v/>
       </c>
-      <c r="F30" s="77" t="str">
+      <c r="F30" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H30)&lt;&gt;0,'Sprint 2 - Bilan'!$H30,IF(LEN('Sprint 2 - Bilan'!$F30)=0,"",'Sprint 2 - Bilan'!$F30))</f>
-        <v/>
+        <v>0.3</v>
       </c>
       <c r="G30" s="112"/>
       <c r="H30" s="113"/>
@@ -14078,9 +14183,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E32)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G32)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E32)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G32))</f>
         <v/>
       </c>
-      <c r="F32" s="77" t="str">
+      <c r="F32" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H32)&lt;&gt;0,'Sprint 2 - Bilan'!$H32,IF(LEN('Sprint 2 - Bilan'!$F32)=0,"",'Sprint 2 - Bilan'!$F32))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G32" s="112"/>
       <c r="H32" s="113"/>
@@ -14162,9 +14267,9 @@
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E34)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G34)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E34)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G34))</f>
         <v/>
       </c>
-      <c r="F34" s="77" t="str">
+      <c r="F34" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H34)&lt;&gt;0,'Sprint 2 - Bilan'!$H34,IF(LEN('Sprint 2 - Bilan'!$F34)=0,"",'Sprint 2 - Bilan'!$F34))</f>
-        <v/>
+        <v>0.35</v>
       </c>
       <c r="G34" s="112"/>
       <c r="H34" s="113"/>
@@ -14568,11 +14673,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -14580,21 +14685,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>56 champs</v>
+        <v>44 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -14717,7 +14822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
@@ -14924,7 +15029,7 @@
       </c>
       <c r="D10" s="96" t="str">
         <f t="shared" si="0"/>
-        <v>1h45</v>
+        <v>21h15</v>
       </c>
       <c r="E10" s="97" t="str">
         <f t="shared" si="0"/>
@@ -14932,7 +15037,7 @@
       </c>
       <c r="F10" s="101" t="str">
         <f t="shared" si="0"/>
-        <v>21h00</v>
+        <v>40h30</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -14942,7 +15047,7 @@
       </c>
       <c r="M10" s="1">
         <f>'Sprint 2 - Bilan'!V9</f>
-        <v>7.2916666666666699E-2</v>
+        <v>0.8854166666666673</v>
       </c>
       <c r="N10" s="1">
         <f>'Sprint 3 - Bilan'!V9</f>
@@ -14950,7 +15055,7 @@
       </c>
       <c r="O10" s="1">
         <f>SUM(L10:N10)</f>
-        <v>0.87500000000000211</v>
+        <v>1.6875000000000027</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>66</v>
@@ -14961,7 +15066,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>21.25</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="1"/>
@@ -14992,15 +15097,15 @@
       </c>
       <c r="D11" s="105">
         <f>M11</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E11" s="106">
         <f>N11</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F11" s="107">
         <f>O11</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -15010,15 +15115,15 @@
       </c>
       <c r="M11" s="1">
         <f>'Sprint 2 - Bilan'!V16</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>

--- a/B65_Planification_AntoineDeschenes.xlsx
+++ b/B65_Planification_AntoineDeschenes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CVM-J\B65\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CVM-J\B65\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12195" tabRatio="494" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" tabRatio="494" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -1491,6 +1491,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1562,10 +1566,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2683,7 +2683,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2798,8 +2797,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="292533064"/>
-        <c:axId val="292533456"/>
+        <c:axId val="-1083747408"/>
+        <c:axId val="-1083741424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2852,10 +2851,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,11 +2871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="292533064"/>
-        <c:axId val="292533456"/>
+        <c:axId val="-1083747408"/>
+        <c:axId val="-1083741424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="292533064"/>
+        <c:axId val="-1083747408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,7 +2918,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292533456"/>
+        <c:crossAx val="-1083741424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2927,7 +2926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292533456"/>
+        <c:axId val="-1083741424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2978,7 +2977,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292533064"/>
+        <c:crossAx val="-1083747408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2992,7 +2991,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3099,7 +3097,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3263,7 +3260,7 @@
                   <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.25</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3282,11 +3279,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-15"/>
-        <c:axId val="349031896"/>
-        <c:axId val="349027976"/>
+        <c:axId val="-1083745776"/>
+        <c:axId val="-1083751216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349031896"/>
+        <c:axId val="-1083745776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3329,7 +3326,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349027976"/>
+        <c:crossAx val="-1083751216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3337,7 +3334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349027976"/>
+        <c:axId val="-1083751216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,7 +3385,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349031896"/>
+        <c:crossAx val="-1083745776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3402,7 +3399,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3509,7 +3505,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3807,7 +3802,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3914,7 +3908,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4236,7 +4229,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6980,13 +6972,13 @@
   <sheetData>
     <row r="1" spans="2:31" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
@@ -6996,12 +6988,12 @@
       <c r="D3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="123" t="s">
+      <c r="E3" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
     </row>
     <row r="4" spans="2:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -9652,15 +9644,15 @@
   <sheetData>
     <row r="1" spans="2:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="124">
+      <c r="B2" s="125">
         <f>Planification!B2:H2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -9669,8 +9661,8 @@
       <c r="C3" s="21"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="2:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -11061,7 +11053,7 @@
   <dimension ref="B1:Z57"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11080,17 +11072,17 @@
   <sheetData>
     <row r="1" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="124">
+      <c r="B2" s="125">
         <f>Planification!B2:H2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -11101,8 +11093,8 @@
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
     </row>
     <row r="4" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -11126,48 +11118,48 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 12 champs à remplir!</v>
+        <v>Attention, il reste 6 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="130" t="s">
+      <c r="B7" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="132" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="134" t="s">
+      <c r="H7" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="137" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="133"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="129"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="65" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="133"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="137"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="138"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
@@ -11223,7 +11215,7 @@
       </c>
       <c r="V9" s="9">
         <f>SUM(G9:G43)</f>
-        <v>0.8854166666666673</v>
+        <v>1.2708333333333335</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.25">
@@ -11271,15 +11263,15 @@
       </c>
       <c r="S10" s="61">
         <f t="array" ref="S10">SUM(($D$9:$D$43=$R10)*$G$9:$G$43)</f>
-        <v>0.46875000000000033</v>
+        <v>0.85416666666666652</v>
       </c>
       <c r="T10" s="62">
         <f t="shared" ref="T10:T11" si="4">S10*24*60</f>
-        <v>675.00000000000045</v>
+        <v>1229.9999999999998</v>
       </c>
       <c r="V10" s="10">
         <f>V9</f>
-        <v>0.8854166666666673</v>
+        <v>1.2708333333333335</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -11335,7 +11327,7 @@
       </c>
       <c r="V11" s="63">
         <f>DAY(V9)*24+HOUR(V9)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
@@ -11382,7 +11374,7 @@
       <c r="R12" s="8"/>
       <c r="V12" s="4">
         <f>MINUTE(V9)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
@@ -11431,11 +11423,11 @@
       </c>
       <c r="V13" s="63">
         <f>V11</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="W13" s="4" t="str">
         <f>V13 &amp; " " &amp; U13 &amp; IF(V13 &gt; 1, "s", "")</f>
-        <v>21 heures</v>
+        <v>30 heures</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
@@ -11488,11 +11480,11 @@
       </c>
       <c r="V14" s="4">
         <f>V12</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="W14" s="4" t="str">
         <f>V14 &amp; " " &amp; U14 &amp; IF(V14 &gt; 1, "s", "")</f>
-        <v>15 minutes</v>
+        <v>30 minutes</v>
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
@@ -11542,11 +11534,11 @@
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
         <f>IF(V13&gt;0,IF(V14&gt;0,W13&amp;" et "&amp;W14,W13),W14)</f>
-        <v>21 heures et 15 minutes</v>
+        <v>30 heures et 30 minutes</v>
       </c>
       <c r="Y15" s="4" t="str">
         <f>V13&amp;"h"&amp;TEXT(V14,"00")</f>
-        <v>21h15</v>
+        <v>30h30</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
@@ -11596,11 +11588,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche est en retard!",CONCATENATE(V16," tâches sont en retard!")))</f>
-        <v>4 tâches sont en retard!</v>
+        <v>2 tâches sont en retard!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -11630,7 +11622,7 @@
       <c r="H17" s="116">
         <v>1</v>
       </c>
-      <c r="I17" s="140" t="s">
+      <c r="I17" s="122" t="s">
         <v>107</v>
       </c>
       <c r="M17" s="3" t="b">
@@ -11769,16 +11761,18 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F19),"",'Sprint 1 - Bilan'!F19)</f>
         <v/>
       </c>
-      <c r="G20" s="112"/>
+      <c r="G20" s="112">
+        <v>3.125E-2</v>
+      </c>
       <c r="H20" s="113">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I20" s="114" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
@@ -11815,7 +11809,9 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F20),"",'Sprint 1 - Bilan'!F20)</f>
         <v/>
       </c>
-      <c r="G21" s="118"/>
+      <c r="G21" s="118">
+        <v>0.33333333333333298</v>
+      </c>
       <c r="H21" s="116">
         <v>0.5</v>
       </c>
@@ -11824,7 +11820,7 @@
       </c>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
@@ -11861,16 +11857,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F21),"",'Sprint 1 - Bilan'!F21)</f>
         <v/>
       </c>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
+      <c r="G22" s="112">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H22" s="113">
+        <v>1</v>
+      </c>
       <c r="I22" s="114"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="8"/>
     </row>
@@ -11903,16 +11903,20 @@
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F22),"",'Sprint 1 - Bilan'!F22)</f>
         <v/>
       </c>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
+      <c r="G23" s="115">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H23" s="116">
+        <v>1</v>
+      </c>
       <c r="I23" s="117"/>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11920,7 +11924,7 @@
       </c>
       <c r="P23" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="8"/>
     </row>
@@ -12801,11 +12805,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -12813,21 +12817,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>12 champs</v>
+        <v>6 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -13025,17 +13029,17 @@
   <sheetData>
     <row r="1" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="124">
+      <c r="B2" s="125">
         <f>Planification!B2:H2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
@@ -13046,8 +13050,8 @@
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
     </row>
     <row r="4" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -13071,48 +13075,48 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 44 champs à remplir!</v>
+        <v>Attention, il reste 40 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="130" t="s">
+      <c r="B7" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="132" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="134" t="s">
+      <c r="H7" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="137" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="133"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="129"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="130"/>
       <c r="E8" s="67" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="133"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="137"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="138"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
@@ -13529,11 +13533,11 @@
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>22 tâches n'ont pas été terminé!</v>
+        <v>20 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -13675,13 +13679,13 @@
         <f>IF(LEN(Planification!H19)&lt;&gt;0,Planification!H19,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E20" s="73" t="str">
+      <c r="E20" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20))</f>
-        <v/>
+        <v>3.125E-2</v>
       </c>
       <c r="F20" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H20)&lt;&gt;0,'Sprint 2 - Bilan'!$H20,IF(LEN('Sprint 2 - Bilan'!$F20)=0,"",'Sprint 2 - Bilan'!$F20))</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G20" s="112"/>
       <c r="H20" s="113"/>
@@ -13717,9 +13721,9 @@
         <f>IF(LEN(Planification!H20)&lt;&gt;0,Planification!H20,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E21" s="75" t="str">
+      <c r="E21" s="75">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21))</f>
-        <v/>
+        <v>0.33333333333333298</v>
       </c>
       <c r="F21" s="79">
         <f>IF(LEN('Sprint 2 - Bilan'!$H21)&lt;&gt;0,'Sprint 2 - Bilan'!$H21,IF(LEN('Sprint 2 - Bilan'!$F21)=0,"",'Sprint 2 - Bilan'!$F21))</f>
@@ -13759,24 +13763,24 @@
         <f>IF(LEN(Planification!H21)&lt;&gt;0,Planification!H21,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E22" s="73" t="str">
+      <c r="E22" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22))</f>
-        <v/>
-      </c>
-      <c r="F22" s="77" t="str">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="F22" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H22)&lt;&gt;0,'Sprint 2 - Bilan'!$H22,IF(LEN('Sprint 2 - Bilan'!$F22)=0,"",'Sprint 2 - Bilan'!$F22))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G22" s="112"/>
       <c r="H22" s="113"/>
       <c r="I22" s="114"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13784,7 +13788,7 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="8"/>
     </row>
@@ -13801,24 +13805,24 @@
         <f>IF(LEN(Planification!H22)&lt;&gt;0,Planification!H22,"")</f>
         <v>Sprint 2</v>
       </c>
-      <c r="E23" s="74" t="str">
+      <c r="E23" s="74">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23))</f>
-        <v/>
-      </c>
-      <c r="F23" s="78" t="str">
+        <v>1.0416666666666701E-2</v>
+      </c>
+      <c r="F23" s="78">
         <f>IF(LEN('Sprint 2 - Bilan'!$H23)&lt;&gt;0,'Sprint 2 - Bilan'!$H23,IF(LEN('Sprint 2 - Bilan'!$F23)=0,"",'Sprint 2 - Bilan'!$F23))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G23" s="115"/>
       <c r="H23" s="116"/>
       <c r="I23" s="117"/>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13826,7 +13830,7 @@
       </c>
       <c r="P23" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="8"/>
     </row>
@@ -14673,11 +14677,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -14685,21 +14689,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>44 champs</v>
+        <v>40 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -15029,7 +15033,7 @@
       </c>
       <c r="D10" s="96" t="str">
         <f t="shared" si="0"/>
-        <v>21h15</v>
+        <v>30h30</v>
       </c>
       <c r="E10" s="97" t="str">
         <f t="shared" si="0"/>
@@ -15037,7 +15041,7 @@
       </c>
       <c r="F10" s="101" t="str">
         <f t="shared" si="0"/>
-        <v>40h30</v>
+        <v>49h45</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -15047,7 +15051,7 @@
       </c>
       <c r="M10" s="1">
         <f>'Sprint 2 - Bilan'!V9</f>
-        <v>0.8854166666666673</v>
+        <v>1.2708333333333335</v>
       </c>
       <c r="N10" s="1">
         <f>'Sprint 3 - Bilan'!V9</f>
@@ -15055,7 +15059,7 @@
       </c>
       <c r="O10" s="1">
         <f>SUM(L10:N10)</f>
-        <v>1.6875000000000027</v>
+        <v>2.0729166666666687</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>66</v>
@@ -15066,7 +15070,7 @@
       </c>
       <c r="R10" s="1">
         <f t="shared" si="1"/>
-        <v>21.25</v>
+        <v>30.5</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="1"/>
@@ -15097,15 +15101,15 @@
       </c>
       <c r="D11" s="105">
         <f>M11</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="106">
         <f>N11</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="107">
         <f>O11</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -15115,15 +15119,15 @@
       </c>
       <c r="M11" s="1">
         <f>'Sprint 2 - Bilan'!V16</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -15287,15 +15291,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -15555,13 +15559,13 @@
     <row r="34" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="C35" s="139" t="s">
+      <c r="C35" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="140"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/B65_Planification_AntoineDeschenes.xlsx
+++ b/B65_Planification_AntoineDeschenes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CVM-J\B65\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CVM-J\B65\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2797,8 +2797,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="-1083747408"/>
-        <c:axId val="-1083741424"/>
+        <c:axId val="361154480"/>
+        <c:axId val="361150560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2871,11 +2871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1083747408"/>
-        <c:axId val="-1083741424"/>
+        <c:axId val="361154480"/>
+        <c:axId val="361150560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1083747408"/>
+        <c:axId val="361154480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,7 +2918,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083741424"/>
+        <c:crossAx val="361150560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2926,7 +2926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1083741424"/>
+        <c:axId val="361150560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,7 +2977,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083747408"/>
+        <c:crossAx val="361154480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3279,11 +3279,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-15"/>
-        <c:axId val="-1083745776"/>
-        <c:axId val="-1083751216"/>
+        <c:axId val="361155264"/>
+        <c:axId val="361151736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1083745776"/>
+        <c:axId val="361155264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3326,7 +3326,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083751216"/>
+        <c:crossAx val="361151736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3334,7 +3334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1083751216"/>
+        <c:axId val="361151736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,7 +3385,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083745776"/>
+        <c:crossAx val="361155264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11053,7 +11053,7 @@
   <dimension ref="B1:Z57"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
